--- a/forms/contact/household-edit.xlsx
+++ b/forms/contact/household-edit.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637B6818-DFE1-4D3A-834E-3F7D3B377E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8268"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -248,7 +259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
@@ -958,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -968,7 +979,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27390,7 +27401,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D918">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D918" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27399,7 +27410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -33320,7 +33331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -33367,7 +33378,7 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">NOW()</f>
-        <v>44873.974678125</v>
+        <v>44881.064796064813</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>24</v>
